--- a/patterns.xlsx
+++ b/patterns.xlsx
@@ -14,12 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Frequency</t>
   </si>
   <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Sun</t>
   </si>
   <si>
     <t>W</t>
@@ -33,10 +54,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -93,23 +114,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -125,13 +138,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -139,32 +145,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,6 +169,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -187,14 +192,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,7 +214,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,7 +244,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,13 +265,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,13 +283,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,31 +325,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,79 +337,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,7 +367,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,7 +385,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,36 +573,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -591,13 +582,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,9 +614,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,160 +670,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1116,7 +1137,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.22" defaultRowHeight="15" customHeight="1"/>
@@ -1132,26 +1153,26 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="21">
+      <c r="H1" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:9">
@@ -2403,7 +2424,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B45" s="17">
         <v>44</v>
@@ -2432,7 +2453,7 @@
     </row>
     <row r="46" ht="15.75" customHeight="1" spans="1:9">
       <c r="A46" s="17" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B46" s="17">
         <v>45</v>
